--- a/数据整理/stocks/港股/00941-中国移动.xlsx
+++ b/数据整理/stocks/港股/00941-中国移动.xlsx
@@ -451,687 +451,925 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>510900</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达恒生国企(QDII-ETF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6369</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000979</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8698</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009098</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城价值领航两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>70.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8366</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008850</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>64.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5010</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008060</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>63.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4221</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161831</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华恒生国企指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2992</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006614</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2698</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159960</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>平安港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>97.70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1949</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501311</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1650</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501301</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1188</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159954</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>100.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0841</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160717</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实恒生中国企业指数(QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>006930</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>泰康中证港股通TMT主题指数A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>93.02</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>11.62</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006355</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003993</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>69.81</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>006931</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>泰康中证港股通TMT主题指数C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>93.02</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>11.62</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>006778</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>广发恒生中国企业精明指数（QDII）A</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>93.13</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>4.06</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>513680</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>建信港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>95.54</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159963</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>513900</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华安CES港股通精选100ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>96.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>006779</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>广发恒生中国企业精明指数（QDII）C</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>93.13</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>4.06</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>160717</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>嘉实恒生中国企业指数(QDII-LOF)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>94.74</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>161831</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>银华恒生国企指数（QDII-LOF）</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>87.19</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>510900</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>易方达恒生国企(QDII-ETF)</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>98.44</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>006355</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华宝港股通恒生中国(香港上市)25指数(LOF)C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>95.01</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>006614</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>嘉实恒生港股通新经济指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>94.78</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>5.29</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>007107</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>太平 MSCI 香港价值增强指数A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>92.96</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>5.22</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>007108</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>太平 MSCI 香港价值增强指数C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>92.96</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>5.22</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>159954</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>南方恒生中国企业ETF</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>100.44</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>501311</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>嘉实恒生港股通新经济指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>94.78</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>5.29</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>513680</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>建信港股通恒生中国企业ETF</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>95.54</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>513900</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>华安CES港股通精选100ETF</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>96.00</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>2.17</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>159960</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>平安港股通恒生中国企业ETF</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>97.70</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>000979</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>景顺长城沪港深精选股票</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>82.45</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>6.92</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>159963</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>富国恒生中国企业ETF</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>99.29</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>501301</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>华宝港股通恒生中国(香港上市)25指数(LOF)A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>95.01</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>003993</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>前海开源沪港深核心驱动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>69.81</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>008060</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>景顺长城价值边际灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>63.61</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>008850</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>64.30</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>009098</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>景顺长城价值领航两年持有期混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>70.46</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>8</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1141,7 +1379,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:H117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1162,15 +1400,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1182,26 +1430,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008809</t>
+          <t>007119</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>安信民稳增长混合A</t>
+          <t>睿远成长价值混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>34.77</t>
+          <t>313.71</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>24.7203</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1210,26 +1468,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008810</t>
+          <t>008969</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>安信民稳增长混合C</t>
+          <t>睿远均衡价值三年持有期混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>34.77</t>
+          <t>152.18</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10.6983</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1238,26 +1506,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009849</t>
+          <t>010213</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>安信稳健聚申一年持有期混合</t>
+          <t>中欧互联网先锋混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>36.24</t>
+          <t>92.05</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.0661</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1266,26 +1544,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>501301</t>
+          <t>010902</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华宝港股通恒生中国(香港上市)25指数(LOF)A</t>
+          <t>博时成长领航灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>95.00</t>
+          <t>115.74</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.48</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>40.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.3819</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1294,26 +1582,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006355</t>
+          <t>005847</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华宝港股通恒生中国(香港上市)25指数(LOF)C</t>
+          <t>富国沪港深业绩驱动混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>95.00</t>
+          <t>95.34</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.48</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>73.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.7575</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1322,26 +1620,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005659</t>
+          <t>009896</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>南方恒生ETF联接C</t>
+          <t>广发港股通成长精选股票A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>95.00</t>
+          <t>59.19</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.48</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.6701</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1350,26 +1658,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000979</t>
+          <t>009076</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>景顺长城沪港深精选股票</t>
+          <t>工银瑞信圆兴混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>83.92</t>
+          <t>109.20</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.98</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.3025</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1378,26 +1696,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>003993</t>
+          <t>510900</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>前海开源沪港深核心驱动灵活配置混合</t>
+          <t>易方达恒生国企(QDII-ETF)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>64.91</t>
+          <t>102.81</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
+          <t>97.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.8040</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1406,26 +1734,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>004314</t>
+          <t>011006</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+          <t>工银瑞信圆丰三年持有期混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>89.34</t>
+          <t>74.85</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>8.10</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.6602</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -1434,25 +1772,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>004315</t>
+          <t>010610</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+          <t>上投摩根远见两年持有期混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>89.34</t>
+          <t>56.59</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>8.10</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.5991</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1462,26 +1810,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005493</t>
+          <t>001371</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>鑫元价值精选灵活配置混合A</t>
+          <t>富国沪港深价值精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>72.57</t>
+          <t>104.46</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
+          <t>75.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3.4054</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1490,25 +1848,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005494</t>
+          <t>005354</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>鑫元价值精选灵活配置混合C</t>
+          <t>富国沪港深行业精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>72.57</t>
+          <t>101.23</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+          <t>75.80</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>3.3608</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1518,26 +1886,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>166402</t>
+          <t>007120</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
+          <t>睿远成长价值混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>93.61</t>
+          <t>34.03</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>8</v>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.6816</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1546,26 +1924,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>007345</t>
+          <t>007490</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>富国科技创新灵活配置混合</t>
+          <t>南方信息创新混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>89.56</t>
+          <t>39.49</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>7</v>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.6498</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1574,26 +1962,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>008060</t>
+          <t>010429</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>景顺长城价值边际灵活配置混合</t>
+          <t>中欧睿见混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>77.74</t>
+          <t>46.25</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>9</v>
+          <t>78.99</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.6409</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -1602,26 +2000,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>009857</t>
+          <t>501087</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>博时价值臻选两年持有期灵活配置混合A</t>
+          <t>交银施罗德瑞丰三年封闭运作混合型</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>80.46</t>
+          <t>51.98</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>6.11</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>2</v>
+          <t>95.74</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.5470</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1630,26 +2038,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>009858</t>
+          <t>010178</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>博时价值臻选两年持有期灵活配置混合C</t>
+          <t>大成企业能力驱动混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>80.46</t>
+          <t>78.01</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>6.11</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>2</v>
+          <t>34.29</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2.2935</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -1658,26 +2076,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>010902</t>
+          <t>010583</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>博时成长领航灵活配置混合A</t>
+          <t>富国蓝筹精选股票（QDII）美元</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>40.82</t>
+          <t>29.59</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.5831</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -1686,26 +2114,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>010903</t>
+          <t>007455</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>博时成长领航灵活配置混合C</t>
+          <t>富国蓝筹精选股票（QDII）人民币</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>40.82</t>
+          <t>29.59</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.5831</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -1714,26 +2152,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>008850</t>
+          <t>000979</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+          <t>景顺长城沪港深精选股票</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>70.29</t>
+          <t>24.44</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>9</v>
+          <t>83.92</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.4615</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -1742,26 +2190,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>008966</t>
+          <t>010452</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>博时成长优选两年封闭运作灵活配置混合A</t>
+          <t>广发瑞福精选混合A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>85.36</t>
+          <t>16.94</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>5.91</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>4</v>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.4009</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -1770,26 +2228,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>008967</t>
+          <t>501077</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>博时成长优选两年封闭运作灵活配置混合C</t>
+          <t>富国科创主题 3 年封闭运作灵活配置混 合型</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>85.36</t>
+          <t>22.76</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5.91</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>4</v>
+          <t>97.25</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.3770</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -1798,26 +2266,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>501077</t>
+          <t>009646</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>富国科创主题 3 年封闭运作灵活配置混 合型</t>
+          <t>南方核心成长混合A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>97.25</t>
+          <t>35.11</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>6.05</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>5</v>
+          <t>85.76</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.3588</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -1826,26 +2304,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>501099</t>
+          <t>009984</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>平安科技创新3年封闭运作灵活配置混合型</t>
+          <t>鹏华启航两年封闭运作混合</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>91.80</t>
+          <t>16.53</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>5.24</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>3</v>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.2827</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1854,25 +2342,35 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>001371</t>
+          <t>009681</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>富国沪港深价值精选灵活配置混合A</t>
+          <t>南方创新精选一年定期开放混合A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>75.84</t>
+          <t>25.37</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.1391</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1882,25 +2380,35 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>011131</t>
+          <t>010214</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>富国沪港深价值精选灵活配置混合C</t>
+          <t>中欧互联网先锋混合C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>75.84</t>
+          <t>16.92</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.1150</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1910,25 +2418,35 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>001581</t>
+          <t>010143</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>华安沪港深通精选灵活配置混合</t>
+          <t>交银施罗德启欣混合</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>85.33</t>
+          <t>50.75</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
+          <t>68.45</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.0860</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1938,26 +2456,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>001972</t>
+          <t>008966</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
+          <t>博时成长优选两年封闭运作灵活配置混合A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>66.30</t>
+          <t>18.27</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>5.96</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>3</v>
+          <t>85.36</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.0798</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -1966,26 +2494,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>004249</t>
+          <t>008970</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>安信中国制造2025沪港深灵活配置混合</t>
+          <t>睿远均衡价值三年持有期混合C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>80.42</t>
+          <t>15.08</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>5</v>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.0601</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -1994,25 +2532,35 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>005354</t>
+          <t>009983</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>富国沪港深行业精选灵活配置混合A</t>
+          <t>永赢港股通品质生活慧选混合</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>75.80</t>
+          <t>20.79</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
+          <t>81.71</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.0333</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2022,26 +2570,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>011114</t>
+          <t>011174</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>富国沪港深行业精选灵活配置混合C</t>
+          <t>中庚价值品质一年持有期混合</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>75.80</t>
+          <t>29.42</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>6</v>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1.0120</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -2050,26 +2608,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>005729</t>
+          <t>262001</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>南方人工智能主题混合</t>
+          <t>景顺长城大中华混合(QDII)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>89.45</t>
+          <t>18.62</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>6</v>
+          <t>85.28</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.9664</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -2078,26 +2646,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>005741</t>
+          <t>010671</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>南方君信灵活配置混合A</t>
+          <t>景顺长城大中华混合(QDII)美元</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>56.82</t>
+          <t>18.62</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>5</v>
+          <t>85.28</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.9664</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="35">
@@ -2106,26 +2684,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>010150</t>
+          <t>009098</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>南方君信灵活配置混合C</t>
+          <t>景顺长城价值领航两年持有期混合</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>56.82</t>
+          <t>22.94</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>5</v>
+          <t>69.93</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.9405</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="36">
@@ -2134,26 +2722,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>009896</t>
+          <t>010132</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>广发港股通成长精选股票A</t>
+          <t>南方创新成长混合A</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>90.68</t>
+          <t>22.98</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>7.89</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>2</v>
+          <t>86.70</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.9054</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="37">
@@ -2162,25 +2760,35 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>009897</t>
+          <t>007368</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>广发港股通成长精选股票C</t>
+          <t>浙商沪港深精选混合A</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>90.68</t>
+          <t>13.88</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>7.89</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.8786</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2190,26 +2798,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>009983</t>
+          <t>010903</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>永赢港股通品质生活慧选混合</t>
+          <t>博时成长领航灵活配置混合C</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>81.71</t>
+          <t>17.68</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>6</v>
+          <t>40.82</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.8221</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -2218,26 +2836,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>009984</t>
+          <t>009897</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>鹏华启航两年封闭运作混合</t>
+          <t>广发港股通成长精选股票C</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>9.79</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>7.76</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>1</v>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.7724</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -2246,26 +2874,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>006216</t>
+          <t>008188</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>前海开源价值成长灵活配置混合A</t>
+          <t>前海开源稳健增长三年持有期混合</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>43.99</t>
+          <t>28.14</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>8</v>
+          <t>53.31</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.7542</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="41">
@@ -2274,26 +2912,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>006217</t>
+          <t>009857</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>前海开源价值成长灵活配置混合C</t>
+          <t>博时价值臻选两年持有期灵活配置混合A</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>43.99</t>
+          <t>12.05</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>8</v>
+          <t>80.46</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.7363</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -2302,26 +2950,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>006223</t>
+          <t>008850</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>交银施罗德创新成长混合</t>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>89.11</t>
+          <t>17.34</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>10</v>
+          <t>70.29</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.7092</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="43">
@@ -2330,26 +2988,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>262001</t>
+          <t>007345</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>景顺长城大中华混合(QDII)</t>
+          <t>富国科技创新灵活配置混合</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>85.28</t>
+          <t>16.93</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>4</v>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.6907</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="44">
@@ -2358,26 +3026,36 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>010132</t>
+          <t>009695</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>南方创新成长混合A</t>
+          <t>招商成长精选一年定期开放混合A</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>86.70</t>
+          <t>11.39</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>8</v>
+          <t>86.65</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.6390</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -2386,26 +3064,36 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>010133</t>
+          <t>007491</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>南方创新成长混合C</t>
+          <t>南方信息创新混合C</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>86.70</t>
+          <t>6.31</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>8</v>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.4234</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -2414,26 +3102,36 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>010143</t>
+          <t>008060</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>交银施罗德启欣混合</t>
+          <t>景顺长城价值边际灵活配置混合</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>68.45</t>
+          <t>9.93</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>5</v>
+          <t>77.74</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.4101</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="47">
@@ -2442,26 +3140,36 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>010178</t>
+          <t>519779</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>大成企业能力驱动混合A</t>
+          <t>交银施罗德沪港深价值精选灵活配置混合</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>34.29</t>
+          <t>8.35</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>4</v>
+          <t>83.96</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3440</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="48">
@@ -2470,26 +3178,36 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>010179</t>
+          <t>009682</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>大成企业能力驱动混合C</t>
+          <t>南方创新精选一年定期开放混合C</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>34.29</t>
+          <t>7.45</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>4</v>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3345</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="49">
@@ -2498,26 +3216,36 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>010213</t>
+          <t>011114</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>中欧互联网先锋混合A</t>
+          <t>富国沪港深行业精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>93.23</t>
+          <t>9.60</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>6.59</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>5</v>
+          <t>75.80</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3187</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="50">
@@ -2526,26 +3254,36 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>010214</t>
+          <t>008480</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>中欧互联网先锋混合C</t>
+          <t>永赢股息优选混合A</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>93.23</t>
+          <t>6.36</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>6.59</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>5</v>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3015</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="51">
@@ -2554,26 +3292,36 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>006775</t>
+          <t>009108</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>前海开源优质成长混合</t>
+          <t>富国红利精选混合（QDII）人民币</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>52.74</t>
+          <t>7.52</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>9</v>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2880</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="52">
@@ -2582,26 +3330,36 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>006778</t>
+          <t>009193</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>广发恒生中国企业精明指数（QDII）A</t>
+          <t>富国红利精选混合（QDII）美元</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>93.56</t>
+          <t>7.52</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>7</v>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2880</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="53">
@@ -2610,26 +3368,36 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>006779</t>
+          <t>001581</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>广发恒生中国企业精明指数（QDII）C</t>
+          <t>华安沪港深通精选灵活配置混合</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>93.56</t>
+          <t>9.71</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>7</v>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2796</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="54">
@@ -2638,26 +3406,36 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>006781</t>
+          <t>159960</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>汇丰晋信港股通精选股票</t>
+          <t>平安港股通恒生中国企业ETF</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>92.52</t>
+          <t>6.07</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>4</v>
+          <t>96.87</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2537</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="55">
@@ -2666,26 +3444,36 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>010429</t>
+          <t>011117</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>中欧睿见混合</t>
+          <t>富国沪港深业绩驱动混合C</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>78.99</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>5.71</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>7</v>
+          <t>73.53</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2420</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="56">
@@ -2694,26 +3482,36 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>010452</t>
+          <t>006223</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>广发瑞福精选混合A</t>
+          <t>交银施罗德创新成长混合</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>88.49</t>
+          <t>7.57</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>8.27</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
-        <v>2</v>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2150</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="57">
@@ -2722,26 +3520,36 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>010453</t>
+          <t>009647</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>广发瑞福精选混合C</t>
+          <t>南方核心成长混合C</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>88.49</t>
+          <t>5.46</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>8.27</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
-        <v>2</v>
+          <t>85.76</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2113</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="58">
@@ -2750,26 +3558,36 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>006923</t>
+          <t>160125</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>前海开源沪港深非周期性行业股票A</t>
+          <t>南方香港优选股票QDII-LOF</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>89.39</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>6.26</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
-        <v>4</v>
+          <t>82.53</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2025</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="59">
@@ -2778,26 +3596,36 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>006924</t>
+          <t>007354</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>前海开源沪港深非周期性行业股票C</t>
+          <t>创金合信港股通量化股票A</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>89.39</t>
+          <t>6.80</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>6.26</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
-        <v>4</v>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1938</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="60">
@@ -2806,25 +3634,35 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>006930</t>
+          <t>008134</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>泰康中证港股通TMT主题指数A</t>
+          <t>鹏华优选价值股票</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>94.01</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>13.41</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1828</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2834,26 +3672,36 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>006931</t>
+          <t>009696</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>泰康中证港股通TMT主题指数C</t>
+          <t>招商成长精选一年定期开放混合C</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>94.01</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>13.41</t>
-        </is>
-      </c>
-      <c r="F61" t="n">
-        <v>2</v>
+          <t>86.65</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1683</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2862,26 +3710,36 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>010583</t>
+          <t>501099</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>富国蓝筹精选股票（QDII）美元</t>
+          <t>平安科技创新3年封闭运作灵活配置混合型</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>85.32</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>5.35</t>
-        </is>
-      </c>
-      <c r="F62" t="n">
-        <v>2</v>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1630</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="63">
@@ -2890,26 +3748,36 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>501087</t>
+          <t>010133</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>交银施罗德瑞丰三年封闭运作混合型</t>
+          <t>南方创新成长混合C</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>95.74</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="F63" t="n">
-        <v>10</v>
+          <t>86.70</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1611</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="64">
@@ -2918,26 +3786,36 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>007107</t>
+          <t>006775</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>太平 MSCI 香港价值增强指数A</t>
+          <t>前海开源优质成长混合</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>93.66</t>
+          <t>5.36</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>5.49</t>
-        </is>
-      </c>
-      <c r="F64" t="n">
-        <v>5</v>
+          <t>52.74</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1549</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="65">
@@ -2946,26 +3824,36 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>007108</t>
+          <t>010783</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>太平 MSCI 香港价值增强指数C</t>
+          <t>德邦沪港深龙头混合A</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>93.66</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>5.49</t>
-        </is>
-      </c>
-      <c r="F65" t="n">
-        <v>5</v>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1527</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="66">
@@ -2974,26 +3862,36 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>007109</t>
+          <t>159954</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>南方沪港深核心优势混合</t>
+          <t>南方恒生中国企业ETF</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>80.82</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="F66" t="n">
-        <v>10</v>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1338</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="67">
@@ -3002,26 +3900,36 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>007119</t>
+          <t>513900</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>睿远成长价值混合A</t>
+          <t>华安CES港股通精选100ETF</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>90.64</t>
+          <t>5.32</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>7.88</t>
-        </is>
-      </c>
-      <c r="F67" t="n">
-        <v>1</v>
+          <t>96.06</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1293</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="68">
@@ -3030,26 +3938,36 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>007120</t>
+          <t>100055</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>睿远成长价值混合C</t>
+          <t>富国全球科技互联网股票(QDII)</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>90.64</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>7.88</t>
-        </is>
-      </c>
-      <c r="F68" t="n">
-        <v>1</v>
+          <t>82.20</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1290</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="69">
@@ -3058,26 +3976,36 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>010610</t>
+          <t>501301</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>上投摩根远见两年持有期混合</t>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)A</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>89.12</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>6.36</t>
-        </is>
-      </c>
-      <c r="F69" t="n">
-        <v>2</v>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1288</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="70">
@@ -3086,25 +4014,35 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>501309</t>
+          <t>007109</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>国泰恒生港股通指数（LOF）</t>
+          <t>南方沪港深核心优势混合</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>93.07</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="F70" t="n">
+          <t>80.82</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1208</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
         <v>10</v>
       </c>
     </row>
@@ -3114,26 +4052,36 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>010671</t>
+          <t>006216</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>景顺长城大中华混合(QDII)美元</t>
+          <t>前海开源价值成长灵活配置混合A</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>85.28</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="F71" t="n">
-        <v>4</v>
+          <t>43.99</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0947</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="72">
@@ -3142,26 +4090,36 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>010783</t>
+          <t>008809</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>德邦沪港深龙头混合A</t>
+          <t>安信民稳增长混合A</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>81.17</t>
+          <t>6.77</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="F72" t="n">
-        <v>3</v>
+          <t>34.77</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0927</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="73">
@@ -3170,26 +4128,36 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>010784</t>
+          <t>160717</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>德邦沪港深龙头混合C</t>
+          <t>嘉实恒生中国企业指数(QDII-LOF)</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>81.17</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="F73" t="n">
-        <v>3</v>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="74">
@@ -3198,26 +4166,36 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>007354</t>
+          <t>005741</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>创金合信港股通量化股票A</t>
+          <t>南方君信灵活配置混合A</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>88.95</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="F74" t="n">
-        <v>8</v>
+          <t>56.82</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="75">
@@ -3226,26 +4204,36 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>007357</t>
+          <t>005729</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>创金合信港股通量化股票C</t>
+          <t>南方人工智能主题混合</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>88.95</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="F75" t="n">
-        <v>8</v>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0810</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="76">
@@ -3254,25 +4242,35 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>007368</t>
+          <t>010453</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>浙商沪港深精选混合A</t>
+          <t>广发瑞福精选混合C</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>85.97</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>6.33</t>
-        </is>
-      </c>
-      <c r="F76" t="n">
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3282,26 +4280,36 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>007369</t>
+          <t>008967</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>浙商沪港深精选混合C</t>
+          <t>博时成长优选两年封闭运作灵活配置混合C</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>85.97</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>6.33</t>
-        </is>
-      </c>
-      <c r="F77" t="n">
-        <v>2</v>
+          <t>85.36</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="78">
@@ -3310,26 +4318,36 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>007455</t>
+          <t>009500</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>富国蓝筹精选股票（QDII）人民币</t>
+          <t>国寿安保高股息混合A</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>85.32</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>5.35</t>
-        </is>
-      </c>
-      <c r="F78" t="n">
-        <v>2</v>
+          <t>80.51</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3338,26 +4356,36 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>510900</t>
+          <t>007107</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>易方达恒生国企(QDII-ETF)</t>
+          <t>太平 MSCI 香港价值增强指数A</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>97.45</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="F79" t="n">
-        <v>9</v>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="80">
@@ -3366,26 +4394,36 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>007490</t>
+          <t>004314</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>南方信息创新混合A</t>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>90.43</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>6.71</t>
-        </is>
-      </c>
-      <c r="F80" t="n">
-        <v>1</v>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="81">
@@ -3394,26 +4432,36 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>007491</t>
+          <t>009858</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>南方信息创新混合C</t>
+          <t>博时价值臻选两年持有期灵活配置混合C</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>90.43</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>6.71</t>
-        </is>
-      </c>
-      <c r="F81" t="n">
-        <v>1</v>
+          <t>80.46</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="82">
@@ -3422,26 +4470,36 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>011006</t>
+          <t>006930</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>工银瑞信圆丰三年持有期混合</t>
+          <t>泰康中证港股通TMT主题指数A</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>90.62</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="F82" t="n">
-        <v>4</v>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>13.41</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="83">
@@ -3450,25 +4508,35 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>011174</t>
+          <t>009849</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>中庚价值品质一年持有期混合</t>
+          <t>安信稳健聚申一年持有期混合</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>88.38</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="F83" t="n">
+          <t>36.24</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
         <v>8</v>
       </c>
     </row>
@@ -3478,26 +4546,36 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>513680</t>
+          <t>007369</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>建信港股通恒生中国企业ETF</t>
+          <t>浙商沪港深精选混合C</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>91.95</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="F84" t="n">
-        <v>7</v>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="85">
@@ -3506,26 +4584,36 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>513900</t>
+          <t>004249</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>华安CES港股通精选100ETF</t>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>96.06</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="F85" t="n">
-        <v>8</v>
+          <t>80.42</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="86">
@@ -3534,26 +4622,36 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>100055</t>
+          <t>006781</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>富国全球科技互联网股票(QDII)</t>
+          <t>汇丰晋信港股通精选股票</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>82.20</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="F86" t="n">
-        <v>5</v>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="87">
@@ -3562,26 +4660,36 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>159954</t>
+          <t>010179</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>南方恒生中国企业ETF</t>
+          <t>大成企业能力驱动混合C</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>99.38</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="F87" t="n">
-        <v>7</v>
+          <t>34.29</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="88">
@@ -3590,26 +4698,36 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>159960</t>
+          <t>011131</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>平安港股通恒生中国企业ETF</t>
+          <t>富国沪港深价值精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>96.87</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="F88" t="n">
-        <v>7</v>
+          <t>75.84</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="89">
@@ -3618,26 +4736,36 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>159963</t>
+          <t>006217</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>富国恒生中国企业ETF</t>
+          <t>前海开源价值成长灵活配置混合C</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>98.04</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="F89" t="n">
-        <v>7</v>
+          <t>43.99</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="90">
@@ -3646,26 +4774,36 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>519696</t>
+          <t>006923</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>交银施罗德环球精选价值混合(QDII)</t>
+          <t>前海开源沪港深非周期性行业股票A</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>93.98</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="F90" t="n">
-        <v>9</v>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="91">
@@ -3674,26 +4812,36 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>160125</t>
+          <t>008810</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>南方香港优选股票QDII-LOF</t>
+          <t>安信民稳增长混合C</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>82.53</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>4.51</t>
-        </is>
-      </c>
-      <c r="F91" t="n">
-        <v>3</v>
+          <t>34.77</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="92">
@@ -3702,25 +4850,35 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>519779</t>
+          <t>010784</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>交银施罗德沪港深价值精选灵活配置混合</t>
+          <t>德邦沪港深龙头混合C</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>83.96</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="F92" t="n">
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3730,26 +4888,36 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>160717</t>
+          <t>004315</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>嘉实恒生中国企业指数(QDII-LOF)</t>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>94.93</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="F93" t="n">
-        <v>9</v>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="94">
@@ -3758,26 +4926,36 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>008969</t>
+          <t>519696</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>睿远均衡价值三年持有期混合A</t>
+          <t>交银施罗德环球精选价值混合(QDII)</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>88.45</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>7.03</t>
-        </is>
-      </c>
-      <c r="F94" t="n">
-        <v>2</v>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="95">
@@ -3786,26 +4964,36 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>008970</t>
+          <t>006355</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>睿远均衡价值三年持有期混合C</t>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)C</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>88.45</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>7.03</t>
-        </is>
-      </c>
-      <c r="F95" t="n">
-        <v>2</v>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="96">
@@ -3814,26 +5002,36 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>009076</t>
+          <t>005493</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>工银瑞信圆兴混合</t>
+          <t>鑫元价值精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>93.64</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="F96" t="n">
-        <v>5</v>
+          <t>72.57</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="97">
@@ -3842,25 +5040,35 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>005707</t>
+          <t>008481</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>富国港股通量化精选股票</t>
+          <t>永赢股息优选混合C</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>89.15</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="F97" t="n">
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3870,26 +5078,36 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>009098</t>
+          <t>513680</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>景顺长城价值领航两年持有期混合</t>
+          <t>建信港股通恒生中国企业ETF</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>69.93</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="F98" t="n">
-        <v>9</v>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="99">
@@ -3898,26 +5116,36 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>009108</t>
+          <t>005659</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>富国红利精选混合（QDII）人民币</t>
+          <t>南方恒生ETF联接C</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>81.34</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="F99" t="n">
-        <v>4</v>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="100">
@@ -3926,26 +5154,36 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>005847</t>
+          <t>006931</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>富国沪港深业绩驱动混合A</t>
+          <t>泰康中证港股通TMT主题指数C</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>73.53</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="F100" t="n">
-        <v>3</v>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>13.41</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="101">
@@ -3954,26 +5192,36 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>011117</t>
+          <t>006924</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>富国沪港深业绩驱动混合C</t>
+          <t>前海开源沪港深非周期性行业股票C</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>73.53</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="F101" t="n">
-        <v>3</v>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="102">
@@ -3982,26 +5230,36 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>005883</t>
+          <t>006778</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>华宝港股通香港精选混合</t>
+          <t>广发恒生中国企业精明指数（QDII）A</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>74.11</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="F102" t="n">
-        <v>10</v>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="103">
@@ -4010,26 +5268,36 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>008134</t>
+          <t>003993</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>鹏华优选价值股票</t>
+          <t>前海开源沪港深核心驱动灵活配置混合</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>93.88</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>7.68</t>
-        </is>
-      </c>
-      <c r="F103" t="n">
-        <v>2</v>
+          <t>64.91</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="104">
@@ -4038,26 +5306,36 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>008188</t>
+          <t>005707</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>前海开源稳健增长三年持有期混合</t>
+          <t>富国港股通量化精选股票</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>53.31</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="F104" t="n">
-        <v>10</v>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="105">
@@ -4066,26 +5344,36 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>008480</t>
+          <t>007357</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>永赢股息优选混合A</t>
+          <t>创金合信港股通量化股票C</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>88.75</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="F105" t="n">
-        <v>6</v>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="106">
@@ -4094,26 +5382,36 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>008481</t>
+          <t>501309</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>永赢股息优选混合C</t>
+          <t>国泰恒生港股通指数（LOF）</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>88.75</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="F106" t="n">
-        <v>6</v>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="107">
@@ -4122,26 +5420,36 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>009681</t>
+          <t>005883</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>南方创新精选一年定期开放混合A</t>
+          <t>华宝港股通香港精选混合</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>87.51</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="F107" t="n">
-        <v>5</v>
+          <t>74.11</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="108">
@@ -4150,26 +5458,36 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>009682</t>
+          <t>159963</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>南方创新精选一年定期开放混合C</t>
+          <t>富国恒生中国企业ETF</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>87.51</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="F108" t="n">
-        <v>5</v>
+          <t>98.04</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="109">
@@ -4178,26 +5496,36 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>009193</t>
+          <t>009733</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>富国红利精选混合（QDII）美元</t>
+          <t>创金合信港股通大消费精选股票A</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>81.34</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="F109" t="n">
-        <v>4</v>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="110">
@@ -4206,26 +5534,36 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>009695</t>
+          <t>166402</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>招商成长精选一年定期开放混合A</t>
+          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>86.65</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>5.61</t>
-        </is>
-      </c>
-      <c r="F110" t="n">
-        <v>1</v>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="111">
@@ -4234,26 +5572,36 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>009696</t>
+          <t>001972</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>招商成长精选一年定期开放混合C</t>
+          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>86.65</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>5.61</t>
-        </is>
-      </c>
-      <c r="F111" t="n">
-        <v>1</v>
+          <t>66.30</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="112">
@@ -4262,26 +5610,36 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>009500</t>
+          <t>009734</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>国寿安保高股息混合A</t>
+          <t>创金合信港股通大消费精选股票C</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>80.51</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>5.68</t>
-        </is>
-      </c>
-      <c r="F112" t="n">
-        <v>1</v>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="113">
@@ -4290,26 +5648,36 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>009501</t>
+          <t>006779</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>国寿安保高股息混合C</t>
+          <t>广发恒生中国企业精明指数（QDII）C</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>80.51</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>5.68</t>
-        </is>
-      </c>
-      <c r="F113" t="n">
-        <v>1</v>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="114">
@@ -4318,26 +5686,36 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>009733</t>
+          <t>009501</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>创金合信港股通大消费精选股票A</t>
+          <t>国寿安保高股息混合C</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>90.78</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="F114" t="n">
-        <v>5</v>
+          <t>80.51</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -4346,26 +5724,36 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>009734</t>
+          <t>005494</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>创金合信港股通大消费精选股票C</t>
+          <t>鑫元价值精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>90.78</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="F115" t="n">
-        <v>5</v>
+          <t>72.57</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="116">
@@ -4374,26 +5762,30 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>009646</t>
+          <t>010150</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>南方核心成长混合A</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>85.76</t>
-        </is>
-      </c>
+          <t>南方君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr">
         <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="F116" t="n">
-        <v>8</v>
+          <t>56.82</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="117">
@@ -4402,26 +5794,30 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>009647</t>
+          <t>007108</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>南方核心成长混合C</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>85.76</t>
-        </is>
-      </c>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr">
         <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="F117" t="n">
-        <v>8</v>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/00941-中国移动.xlsx
+++ b/数据整理/stocks/港股/00941-中国移动.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5770,7 +5771,6 @@
           <t>南方君信灵活配置混合C</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr">
         <is>
           <t>56.82</t>
@@ -5802,7 +5802,6 @@
           <t>太平 MSCI 香港价值增强指数C</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr">
         <is>
           <t>93.66</t>
@@ -5818,6 +5817,3516 @@
       </c>
       <c r="H117" t="n">
         <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H92"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007119</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>369.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>23.3606</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008969</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>167.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>11.0843</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010902</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>108.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>71.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.5630</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009076</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信圆兴混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>135.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.7655</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011006</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信圆丰三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>109.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.0088</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009896</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>50.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.9179</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005847</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.1504</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010178</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>72.92</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>48.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.0553</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010610</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>上投摩根远见两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>65.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.8549</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501087</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞丰三年封闭运作混合型</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>53.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>95.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.7915</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005354</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.5870</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007120</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>39.61</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.5034</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>510900</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达恒生国企(QDII-ETF)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>74.85</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>96.22</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.4476</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000979</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>22.94</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.58</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.9889</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010483</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>交银施罗德启道混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>56.23</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>59.51</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.6588</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011236</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>上投摩根行业睿选股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>61.52</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>70.59</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.5318</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010761</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>47.86</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.4454</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009098</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>景顺长城价值领航两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>23.24</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>66.00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.4014</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007455</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>31.05</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.3227</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010583</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>31.05</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.3227</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009984</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华启航两年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>16.86</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.2038</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002332</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>17.10</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.1748</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008970</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>17.19</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.1363</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008850</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>17.55</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>65.52</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.0565</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011174</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中庚价值品质一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>32.88</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.0456</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008966</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>19.37</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.0131</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011256</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>交银施罗德鸿光一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>57.27</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>21.58</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.0080</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010903</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>14.54</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>71.14</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.7459</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008188</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>前海开源稳健增长三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>27.94</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>57.49</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.7069</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007291</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通双核策略混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>11.32</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>67.19</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.7064</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009857</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.6914</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009897</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.6591</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007368</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>15.44</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.6022</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008060</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>80.46</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4811</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008372</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富国阿尔法两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>17.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>76.83</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4573</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011257</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>交银施罗德鸿光一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>17.98</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>21.58</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3164</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010328</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2629</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>159850</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华夏恒生中国企业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2535</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011114</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>79.01</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2426</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>160125</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>南方香港优选股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2425</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>100055</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富国全球科技互联网股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>85.06</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2180</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>159960</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>平安港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>95.93</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2162</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011237</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>上投摩根行业睿选股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>70.59</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2069</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1578</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010700</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>东方红锦丰优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>15.22</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>22.79</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1568</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>007354</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1554</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006775</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>前海开源优质成长混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>59.22</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1456</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011117</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1292</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010783</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1235</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008809</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>33.08</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1189</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009606</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>28.58</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1094</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>501301</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1036</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>159954</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>南方恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>007109</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>南方沪港深核心优势混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1007</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0925</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>513900</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华安CES港股通精选100ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>97.35</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0895</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006216</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>57.35</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0888</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005741</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>68.27</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>160717</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>嘉实恒生中国企业指数(QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>002333</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0721</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011097</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>69.92</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>003126</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>长信易进混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>26.53</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>007369</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008967</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010179</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>48.72</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>004314</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009858</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>82.31</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>006781</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>008810</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>33.08</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>006217</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>57.35</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>003127</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>长信易进混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>26.53</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>006930</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>11.39</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>011105</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>长信稳健均衡6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010784</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>004315</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>009607</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>28.58</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>006355</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011098</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>69.92</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>513680</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>建信港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>166402</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>006931</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>11.39</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>006778</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>广发恒生中国企业精明指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>010329</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>005707</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>007357</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>011106</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>长信稳健均衡6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>006779</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>广发恒生中国企业精明指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>003993</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>79.64</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>010150</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>68.27</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/00941-中国移动.xlsx
+++ b/数据整理/stocks/港股/00941-中国移动.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9332,4 +9333,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>91</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>116</v>
+      </c>
+      <c r="D3" t="n">
+        <v>125.98</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>23</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00941-中国移动.xlsx
+++ b/数据整理/stocks/港股/00941-中国移动.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9341,7 +9342,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9352,17 +9353,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -9372,14 +9393,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>91</v>
-      </c>
-      <c r="D2" t="n">
-        <v>100.13</v>
+          <t>008969</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.2352</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -9388,14 +9431,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>116</v>
-      </c>
-      <c r="D3" t="n">
-        <v>125.98</v>
+          <t>007119</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>58.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.3899</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -9404,13 +9469,2375 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>510900</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达恒生国企(QDII-ETF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>71.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5790</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007066</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>35.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3208</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007120</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>38.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.2393</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010178</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>45.73</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.2088</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000979</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.0462</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009630</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浦银安盛ESG责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>24.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.8481</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009098</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城价值领航两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>23.73</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>61.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.8320</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008850</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.82</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>59.75</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3846</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008715</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城价值驱动一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.29</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>50.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.3365</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008970</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.88</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.2695</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010671</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>75.74</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7386</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>262001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>75.74</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7386</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009984</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华启航两年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16.94</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6742</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160322</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>19.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5760</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008060</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>74.95</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5628</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009631</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>浦银安盛ESG责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.73</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5440</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010010</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通6个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3089</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011574</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2292</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159850</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏恒生中国企业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2213</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007354</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2031</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011651</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1891</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007067</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>81.51</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1855</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>517660</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>天弘中证沪港深物联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1739</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159960</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>平安港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>97.28</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1730</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1458</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010700</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>东方红锦丰优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>15.59</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>23.43</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1341</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1161</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011575</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1055</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>501301</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1023</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159954</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>160717</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实恒生中国企业指数(QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0871</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009606</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>29.95</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004266</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>78.88</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010783</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>78.30</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>003993</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>53.78</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011652</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>513900</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华安CES港股通精选100ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>95.89</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010179</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>75.37</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005741</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>73.50</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>519601</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>海富通中国海外精选混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>84.93</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006930</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>11.63</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006781</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006355</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010784</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>78.30</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009607</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>29.95</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>513680</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>建信港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006931</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>11.63</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006106</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>景顺长城量化港股通股票</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011647</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010754</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>78.88</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>007357</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005707</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006778</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>广发恒生中国企业精明指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>519602</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>海富通大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>84.30</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>006779</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>广发恒生中国企业精明指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011648</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010150</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>73.50</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>62</v>
+      </c>
+      <c r="D2" t="n">
+        <v>33.74</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>91</v>
+      </c>
+      <c r="D3" t="n">
+        <v>100.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>116</v>
+      </c>
+      <c r="D4" t="n">
+        <v>125.98</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>23</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>8.65</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00941-中国移动.xlsx
+++ b/数据整理/stocks/港股/00941-中国移动.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11752,7 +11753,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11763,17 +11764,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -11783,14 +11804,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>62</v>
-      </c>
-      <c r="D2" t="n">
-        <v>33.74</v>
+          <t>007119</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>280.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>22.9214</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -11799,14 +11842,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>91</v>
-      </c>
-      <c r="D3" t="n">
-        <v>100.13</v>
+          <t>008969</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>141.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>12.7435</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -11815,14 +11880,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>116</v>
-      </c>
-      <c r="D4" t="n">
-        <v>125.98</v>
+          <t>014362</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>睿远稳进配置两年持有混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>98.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>33.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.5853</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -11831,13 +11918,5393 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>011363</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>123.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>62.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.2912</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>510900</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达恒生国企(QDII-ETF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>101.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.3496</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159920</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏恒生ETF(QDII)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>151.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.9341</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005847</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>44.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>74.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.8174</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011665</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富数字经济引领发展三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>73.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>63.76</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.9886</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010178</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>35.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.8048</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014591</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发瑞誉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>38.60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.7599</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010041</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>49.98</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.4590</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007120</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>29.98</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.4464</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007110</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通价值发现混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>23.33</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.2397</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014363</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>睿远稳进配置两年持有混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>34.98</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>33.92</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.9904</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008850</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>17.06</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>69.71</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.5883</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000979</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>16.46</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.61</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.5522</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008715</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>景顺长城价值驱动一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>16.83</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>62.03</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.5332</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008970</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>15.26</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.3703</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009630</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>浦银安盛ESG责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>15.61</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>80.10</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.1770</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009098</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>景顺长城价值领航两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.67</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>75.58</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.1647</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012098</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏成长机会一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>17.42</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>67.27</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.1079</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012588</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>37.54</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>71.00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.0812</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009896</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>27.73</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.9872</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>513550</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>31.28</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.9634</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010591</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>35.75</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.9331</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>100061</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>35.75</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.9331</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010671</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>82.59</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.8477</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>262001</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>82.59</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.8477</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011364</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>19.67</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>62.78</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.8458</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009984</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华启航两年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>14.73</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.7733</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007139</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国民裕进取沪港深成长精选混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>12.79</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.6280</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011635</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富国港股通策略精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>76.88</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.5883</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>513660</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏沪港通恒生ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>19.61</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>97.34</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.5844</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004476</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深领先科技股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.5569</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010010</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通6个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.5436</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>160322</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>14.19</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>84.43</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.5392</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008060</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>80.78</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4767</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009631</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>浦银安盛ESG责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>80.10</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4328</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012208</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>12.53</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>82.34</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3922</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>501062</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>南方瑞合三年定期开放混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>56.71</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3275</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005974</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>东方红配置精选混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>21.15</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3069</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>014592</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>广发瑞誉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2917</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008404</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>79.73</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2870</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010042</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2844</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011913</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华夏永泓一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>24.65</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>37.51</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2810</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011574</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2612</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>007066</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>74.55</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2569</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>159850</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华夏恒生中国企业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2536</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008405</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>79.73</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2482</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009897</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2310</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>013009</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>万家港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>81.62</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2281</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005197</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2211</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>100055</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>富国全球科技互联网股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>70.87</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2173</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011117</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>74.38</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2072</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005504</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2017</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>015119</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合D</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2017</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>159960</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>平安港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>96.86</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1987</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011694</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>77.49</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1927</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011157</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1851</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>012060</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>富国全球消费精选混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>78.34</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1800</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>012061</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>富国全球消费精选混合型证券投资基金（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>78.34</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1800</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>501301</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1791</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>519979</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>长信内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1757</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>006397</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>长信内需成长混合E</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1757</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1681</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>513600</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>南方恒生ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1679</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001518</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>81.47</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1668</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>007067</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>74.55</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1594</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010700</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>东方红锦丰优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>14.97</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>23.34</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1542</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>159954</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>南方恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>103.89</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1534</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011914</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华夏永泓一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>12.39</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>37.51</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1412</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010707</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>安信平稳合盈一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>20.56</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1293</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>013200</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>南方均衡优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>33.40</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1293</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>011666</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>汇添富数字经济引领发展三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>63.76</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1286</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>007354</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1271</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011651</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1253</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>008263</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>东方红品质优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>23.01</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1236</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>011575</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1159</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>008308</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华夏见龙精选混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1151</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1131</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>501053</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>东方红目标优选三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>20.67</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1095</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>012170</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>华夏永顺一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>29.59</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1095</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>160717</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>嘉实恒生中国企业指数(QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1077</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>009606</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>37.23</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1049</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>012924</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华夏新时代灵活配置混合（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>012925</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>华夏新时代灵活配置混合（QDII）美元现钞</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>169108</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>东方红均衡优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>22.76</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0931</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>160125</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>南方香港优选股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0888</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>005198</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0819</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>010783</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>81.58</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>164705</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>007109</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>南方沪港深核心优势混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0715</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>011636</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>富国港股通策略精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>76.88</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>013010</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>万家港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>81.62</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>006355</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>513900</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>华安CES港股通精选100ETF</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>96.24</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>011695</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>77.49</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>012589</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>71.00</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>010179</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>004266</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>011969</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>建信港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>57.64</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>011652</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>011158</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>011105</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>长信稳健均衡6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>28.64</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>008253</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>85.00</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>006781</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>517660</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>天弘中证沪港深物联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>98.49</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>11.04</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>005975</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>东方红配置精选混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>21.15</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>159712</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>国泰中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>95.21</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>010784</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>81.58</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>009607</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>37.23</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>850688</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>海通红利优选一年持有期混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>81.32</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>850006</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>海通红利优选一年持有期混合型集合资产管理计划B</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>81.32</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>006205</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>汇添富沪港深优势精选定期开放混合</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>011970</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>建信港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>57.64</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>513680</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>建信港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>96.77</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>012209</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>82.34</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>005701</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>上投摩根香港精选港股通混合</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>84.37</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>007505</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>华夏中证AH经济蓝筹股票指数A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>013201</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>南方均衡优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>33.40</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>010754</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>012062</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>富国全球消费精选混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>78.34</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>008407</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>010789</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>011647</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>013903</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>国泰君安信息行业混合</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>84.06</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>501309</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>国泰恒生港股通指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>007357</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>006106</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>景顺长城量化港股通股票</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>007506</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>华夏中证AH经济蓝筹股票指数C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>005707</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>80.43</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>011106</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>长信稳健均衡6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>28.64</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>166402</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>008254</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>85.00</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>012171</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>华夏永顺一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>29.59</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>001824</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>博时沪港深成长企业混合</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>010708</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>安信平稳合盈一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>20.56</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>008408</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>011648</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>850699</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>海通红利优选一年持有期混合型集合资产管理计划C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>81.32</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>142</v>
+      </c>
+      <c r="D2" t="n">
+        <v>109.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>62</v>
+      </c>
+      <c r="D3" t="n">
+        <v>33.74</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>91</v>
+      </c>
+      <c r="D4" t="n">
+        <v>100.13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>116</v>
+      </c>
+      <c r="D5" t="n">
+        <v>125.98</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>23</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>8.65</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00941-中国移动.xlsx
+++ b/数据整理/stocks/港股/00941-中国移动.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17203,7 +17204,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17214,17 +17215,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -17234,14 +17255,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>142</v>
-      </c>
-      <c r="D2" t="n">
-        <v>109.05</v>
+          <t>007119</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>324.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>19.7202</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -17250,14 +17293,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>62</v>
-      </c>
-      <c r="D3" t="n">
-        <v>33.74</v>
+          <t>008969</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>164.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>12.7825</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -17266,14 +17331,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>91</v>
-      </c>
-      <c r="D4" t="n">
-        <v>100.13</v>
+          <t>014362</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>睿远稳进配置两年持有混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>104.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>37.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.5168</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -17282,14 +17369,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>116</v>
-      </c>
-      <c r="D5" t="n">
-        <v>125.98</v>
+          <t>510900</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达恒生国企(QDII-ETF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>104.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.9581</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -17298,13 +17407,3959 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>011363</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>61.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.8132</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005847</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>39.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.0209</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010178</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>35.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.6284</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014591</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发瑞誉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>37.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.1996</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007120</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>34.97</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.1227</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007110</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通价值发现混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>25.53</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.0909</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011081</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>25.53</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.0909</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014363</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>睿远稳进配置两年持有混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>37.11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>37.45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.9668</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008850</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>17.34</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>76.18</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.5155</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000979</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.89</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.4816</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008715</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城价值驱动一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>17.08</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>64.01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.4638</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008970</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>17.95</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.3965</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008269</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成睿享混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>31.46</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>62.72</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.0759</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009630</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>浦银安盛ESG责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>15.52</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>77.35</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.0554</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>513550</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>36.88</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>98.47</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.9589</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009098</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>景顺长城价值领航两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.8400</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012588</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>32.91</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.8392</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011364</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>19.91</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>61.00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.8083</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009984</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华启航两年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>15.16</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.7383</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>513660</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏沪港通恒生ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>22.17</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>96.96</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5853</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010010</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通6个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>96.57</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5187</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009983</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>永赢港股通品质生活慧选混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4515</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013385</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>信达澳银优势价值混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>14.32</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>83.64</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4325</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008060</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.19</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4269</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009631</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>浦银安盛ESG责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>77.35</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3856</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011117</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3767</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011635</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国港股通策略精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3628</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>501062</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方瑞合三年定期开放混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>75.20</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3128</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005583</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>易方达港股通红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2998</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011913</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏永泓一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>25.23</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>36.74</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2674</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005974</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>东方红配置精选混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>17.29</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>23.43</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2663</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>014592</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发瑞誉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2603</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007066</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2290</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>159850</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华夏恒生中国企业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>96.12</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2108</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>169106</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>东方红创新优选三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>13.95</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2092</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011315</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>永赢港股通优质成长一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1888</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>501301</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1885</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>159960</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>平安港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1862</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>62.72</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1860</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>100055</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国全球科技互联网股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1832</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005504</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1782</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>014752</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长信稳健增长一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>30.91</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1603</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>012586</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>南方港股创新视野一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>50.45</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1559</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>007067</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1411</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>513600</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>南方恒生ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>98.88</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1378</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011914</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华夏永泓一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>12.67</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>36.74</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1343</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1297</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012071</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>45.45</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1287</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>013200</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>南方均衡优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>36.50</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1191</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>007354</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1187</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>10.57</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1120</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008308</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华夏见龙精选混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1099</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>159954</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>南方恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>101.59</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1089</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>501053</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>东方红目标优选三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1045</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>012170</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华夏永顺一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>11.22</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>29.59</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1043</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>014753</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>长信稳健增长一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>30.91</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1011</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>160717</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>嘉实恒生中国企业指数(QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1010</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011694</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1005</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>169108</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>东方红均衡优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0891</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011574</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>006355</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>160125</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>南方香港优选股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>012072</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>45.45</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011575</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>012589</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>009606</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>29.43</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010783</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010179</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>83.45</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>013386</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>信达澳银优势价值混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>83.64</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010890</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>交银施罗德鸿福六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011695</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>011636</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>富国港股通策略精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>005975</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>东方红配置精选混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>23.43</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>006781</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>159712</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>国泰中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>97.04</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>011105</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>长信稳健均衡6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>22.94</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>850688</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>海通红利优选一年持有期混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>009607</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>29.43</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>850006</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>海通红利优选一年持有期混合型集合资产管理计划B</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>010784</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>012587</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>南方港股创新视野一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>50.45</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>013201</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>南方均衡优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>36.50</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>011647</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>513680</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>建信港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>008407</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>013903</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>国泰君安信息行业混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>81.24</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>007357</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>501309</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>国泰恒生港股通指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>011106</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>长信稳健均衡6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>22.94</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>005707</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>166402</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>012171</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>华夏永顺一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>29.59</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>008408</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>011648</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>850699</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>海通红利优选一年持有期混合型集合资产管理计划C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>010891</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>交银施罗德鸿福六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>10.57</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>015119</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合D</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>015118</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>014163</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>105</v>
+      </c>
+      <c r="D2" t="n">
+        <v>83.97</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>142</v>
+      </c>
+      <c r="D3" t="n">
+        <v>109.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>62</v>
+      </c>
+      <c r="D4" t="n">
+        <v>33.74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>91</v>
+      </c>
+      <c r="D5" t="n">
+        <v>100.13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>116</v>
+      </c>
+      <c r="D6" t="n">
+        <v>125.98</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>23</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>8.65</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00941-中国移动.xlsx
+++ b/数据整理/stocks/港股/00941-中国移动.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="D2" t="n">
-        <v>83.97</v>
+        <v>88.59</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="D3" t="n">
-        <v>109.05</v>
+        <v>83.97</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="D4" t="n">
-        <v>33.74</v>
+        <v>109.05</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="D5" t="n">
-        <v>100.13</v>
+        <v>33.74</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="D6" t="n">
-        <v>125.98</v>
+        <v>100.13</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>116</v>
+      </c>
+      <c r="D7" t="n">
+        <v>125.98</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>23</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>8.65</v>
       </c>
     </row>
@@ -583,6 +600,5602 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H147"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007119</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>242.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>17.4694</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008969</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>121.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>11.8477</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159920</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏恒生ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>147.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.1492</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>510900</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达恒生国企（QDII-ETF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.9244</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014362</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>睿远稳进配置两年持有混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>64.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>35.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.8254</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011363</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>67.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>65.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.2232</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010178</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>30.94</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.6082</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014591</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发瑞誉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>33.18</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.3691</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014363</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>睿远稳进配置两年持有混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>35.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>35.09</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.1188</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007120</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>29.32</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.1110</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011081</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>19.35</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.9079</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007110</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通价值发现混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>19.35</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.9079</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005847</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>32.84</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.47</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.7372</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008850</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>17.29</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.6322</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000979</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.04</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.6032</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008970</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>15.10</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.4677</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>169104</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东方红睿满沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>42.07</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.3757</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>513550</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>28.66</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.20</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.9630</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011364</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>18.36</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>65.71</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.8831</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012588</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>25.02</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.50</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.8432</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>160322</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>13.65</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.8367</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012884</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票(LOF) C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>13.65</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.8367</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008715</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>景顺长城价值驱动一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.8263</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001605</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国富沪港深成长精选股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>27.46</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.7991</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009984</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华启航混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>12.45</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>84.87</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.7943</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009630</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>浦银安盛ESG责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.7205</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000934</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>19.83</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>72.45</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.7198</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006370</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>19.83</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>72.45</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.7198</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009896</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>18.30</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.7100</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009098</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>景顺长城价值领航两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.6981</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010010</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通6个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.6828</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012227</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>景顺长城港股通全球竞争力混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>74.96</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.6326</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>513660</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏沪港通恒生ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>19.23</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>96.99</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.6077</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012943</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发稳睿六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>20.75</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>26.11</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.5934</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012944</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发稳睿六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>19.14</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>26.11</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.5474</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008060</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>80.34</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4306</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009631</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>浦银安盛ESG责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4148</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009983</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>永赢港股通品质生活慧选混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>60.68</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3604</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>501062</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>南方瑞合三年定期开放混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3365</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011635</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富国港股通策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>73.36</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3304</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005583</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>易方达港股通红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3260</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010671</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合（QDII）美元A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>70.56</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3212</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>262001</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合（QDII）人民币A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>70.56</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3212</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>014592</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>广发瑞誉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2799</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005974</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>东方红配置精选混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>14.07</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>27.07</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2772</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012640</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>鹏华稳健鸿利一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2587</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>159954</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>南方恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2500</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>159850</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华夏恒生中国企业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2284</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009897</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2274</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>169106</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>东方红创新优选三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>13.62</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>22.87</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2261</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>159960</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>平安港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2043</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>100055</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>富国全球科技互联网股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1971</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011117</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>85.47</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1867</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>513600</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>南方恒生ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>97.41</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1812</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1750</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>013200</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>南方均衡优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>40.60</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1716</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>012586</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>南方港股创新视野一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>50.74</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1547</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>007067</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>77.53</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1526</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>501301</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华宝香港大盘（LOF）A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1487</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>457001</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国富亚洲机会股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>83.80</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1452</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011914</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华夏永泓一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>11.19</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>31.67</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1444</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011913</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华夏永泓一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>31.67</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1442</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005504</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1435</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>501053</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>东方红目标优选三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1355</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011315</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>永赢港股通优质成长一年混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>60.58</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1344</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>014317</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>广发价值领航一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1342</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>13.13</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1274</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>160717</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>嘉实恒生中国企业指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1140</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011574</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1105</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>012170</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华夏永顺一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>28.10</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1072</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>007354</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1065</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>013485</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>尚正竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1043</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>014752</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>长信稳健增长一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>25.64</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1040</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>169108</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>东方红均衡优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>25.64</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0957</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>007066</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>77.53</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0941</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>008308</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华夏见龙精选混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>011575</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>006355</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华宝香港大盘（LOF）C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>160125</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>南方香港优选股票（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>81.74</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0804</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>012228</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>景顺长城港股通全球竞争力混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>74.96</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>014753</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>长信稳健增长一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>25.64</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0749</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>012072</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>38.64</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0732</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>164705</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>012071</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>38.64</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>015779</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>80.34</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>008480</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>67.89</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>012589</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>81.50</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>010179</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>014663</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>富国创新发展两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>71.47</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>517090</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>国泰富时中国国企开放共赢ETF</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>005975</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>东方红配置精选混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>27.07</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>014318</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>广发价值领航一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>011651</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>84.28</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>安信中国制造混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>010783</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>013897</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>德邦港股通成长精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>011636</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>富国港股通策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>73.36</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>013898</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>德邦港股通成长精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>006781</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>011969</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>建信港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>63.37</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>004266</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>160924</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>大成恒生指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>159712</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>国泰中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>010784</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>011652</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>84.28</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>159711</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>华夏中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>95.69</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>517180</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>南方富时中国国企开放共赢ETF</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>97.73</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>013486</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>尚正竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>850006</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>海通红利优选一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>71.13</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>013201</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>南方均衡优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>40.60</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>008254</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>159788</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>易方达中证港股通中国100ETF</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>159719</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>平安富时中国国企开放共赢ETF</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>012587</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>南方港股创新视野一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>50.74</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>513990</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>招商上证港股通ETF</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>008253</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>011970</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>建信港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>63.37</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>010789</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>513680</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>建信港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>012990</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>天弘国证港股通50指数C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>012641</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>鹏华稳健鸿利一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>013903</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>国泰君安信息行业混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>71.75</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>011647</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>007357</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>006106</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>景顺长城量化港股通股票</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>50.20</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>008407</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>010754</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>014664</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>富国创新发展两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>71.47</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>501309</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>国泰恒生港股通指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>166402</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>浦银安盛沪港深基本面（LOF）</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>005707</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>850688</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>海通红利优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>71.13</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>008481</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>67.89</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>013182</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>安信港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>38.51</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>012171</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>华夏永顺一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>28.10</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>004403</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>850699</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>海通红利优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>71.13</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>011648</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>008408</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>013181</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>安信港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>38.51</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>012989</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>天弘国证港股通50指数A</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>004404</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>014163</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>0</v>
+      </c>
+      <c r="H144" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>015118</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>0</v>
+      </c>
+      <c r="H145" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>015119</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合D</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>0</v>
+      </c>
+      <c r="H146" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>13.13</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>0</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4620,7 +10233,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10070,7 +15683,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12480,7 +18093,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15990,7 +21603,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -20440,7 +26053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/00941-中国移动.xlsx
+++ b/数据整理/stocks/港股/00941-中国移动.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="D2" t="n">
-        <v>88.59</v>
+        <v>66.95999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="D3" t="n">
-        <v>83.97</v>
+        <v>88.59</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="D4" t="n">
-        <v>109.05</v>
+        <v>83.97</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="D5" t="n">
-        <v>33.74</v>
+        <v>109.05</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="D6" t="n">
-        <v>100.13</v>
+        <v>33.74</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="D7" t="n">
-        <v>125.98</v>
+        <v>100.13</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>116</v>
+      </c>
+      <c r="D8" t="n">
+        <v>125.98</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>23</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>8.65</v>
       </c>
     </row>
@@ -600,6 +617,6708 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H176"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008969</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>134.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.1027</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>510900</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达恒生国企（QDII-ETF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>101.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.2736</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159920</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏恒生ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>163.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.9716</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014362</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>睿远稳进配置两年持有混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>64.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>37.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.9259</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011363</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>63.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>66.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.2973</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010178</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>31.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.7145</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014363</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>睿远稳进配置两年持有混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>35.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>37.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.1651</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011081</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>28.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.0749</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007110</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通价值发现混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>28.23</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.0749</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161026</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国中证国有企业改革指数A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>26.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.9061</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000628</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>46.16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.7633</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009576</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方红智远三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>66.48</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.7551</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011665</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富数字经济引领发展三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>67.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>67.38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.6466</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008970</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.67</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.3803</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008850</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.18</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>97.45</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.3653</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000979</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.1930</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>513550</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>25.76</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.9505</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011364</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>17.45</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>66.94</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.9074</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>513660</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏沪港通恒生ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>30.20</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>97.65</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.8667</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009984</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华启航混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.8140</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009630</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>浦银安盛ESG责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7373</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007355</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>14.37</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7013</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009896</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>21.01</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6912</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010010</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通6个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>97.04</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6566</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012943</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发稳睿六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>26.98</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6100</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012944</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发稳睿六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>18.37</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>26.98</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5603</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012227</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>景顺长城港股通全球竞争力混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.21</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4771</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008060</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4732</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011256</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>交银施罗德鸿光一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>19.02</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>25.22</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4546</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009631</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>浦银安盛ESG责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4266</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010671</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合（QDII）美元A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>12.44</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4006</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>262001</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合（QDII）人民币A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>12.42</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3999</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009098</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>景顺长城价值领航两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3894</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>501062</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>南方瑞合三年定期开放混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3442</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011066</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3385</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009983</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>永赢港股通品质生活慧选混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3365</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>159850</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华夏恒生中国企业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>95.23</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3163</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005974</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>东方红配置精选混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>13.66</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>27.15</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2800</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007291</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通双核策略混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2740</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012640</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>鹏华稳健鸿利一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2388</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>169106</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>东方红创新优选三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>13.89</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>25.03</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2306</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2240</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>513600</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>南方恒生ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1958</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>159960</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>平安港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>96.43</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1944</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005504</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1936</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009897</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1862</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013853</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>大成匠心卓越三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>68.84</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1820</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>012586</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>南方港股创新视野一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1813</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>000880</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>富国研究精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1787</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>015779</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1769</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>013200</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>南方均衡优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>45.22</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1760</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012577</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>富国诚益回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1697</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>008715</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>景顺长城价值驱动一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1620</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>007067</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>79.28</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1574</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009223</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>宝盈现代服务业混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1547</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011257</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>交银施罗德鸿光一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>25.22</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1542</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>501301</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华宝香港大盘（LOF）A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1491</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011315</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>永赢港股通优质成长一年混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1391</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>501053</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>东方红目标优选三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>24.93</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1388</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>012833</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>交银施罗德鸿信一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>26.60</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1330</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>007356</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1235</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>013485</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>尚正竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>82.14</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1232</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>11.20</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1142</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>160717</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>嘉实恒生中国企业指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1126</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>012770</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>光大保德信创新生活混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>88.40</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1110</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>159954</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>南方恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>99.94</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1108</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011574</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1105</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>012576</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>富国诚益回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1100</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>015780</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>大成ESG责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1062</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>007354</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1053</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>007066</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>79.28</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0957</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>012088</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>东方红锦和甄选18个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>20.80</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0926</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>009782</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>74.76</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0921</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>160125</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>南方香港优选股票（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>84.75</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0917</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>012949</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>东方红招瑞甄选18个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>169108</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>东方红均衡优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>27.78</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0870</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>008308</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华夏见龙精选混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0865</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>012170</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华夏永顺一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>28.10</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011651</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>013859</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>宝盈品质甄选混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0814</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>011575</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0801</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>164705</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>008480</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>83.68</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>011666</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>汇添富数字经济引领发展三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>67.38</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0757</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>012072</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>36.36</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0749</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>012228</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>景顺长城港股通全球竞争力混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>85.21</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>008263</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>东方红品质优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>27.66</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>161229</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>国投瑞银中国价值发现股票（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0727</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>012089</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>东方红锦和甄选18个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>20.80</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0704</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>012071</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>36.36</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010029</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>20.60</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>013678</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>富国信享回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>25.56</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>009783</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>74.76</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>517090</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>国泰富时中国国企开放共赢ETF</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>014466</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>工银行业优选混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>62.72</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>61.58</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>010179</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>012834</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>交银施罗德鸿信一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>26.60</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>004266</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>005975</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>东方红配置精选混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>27.15</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>016174</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>汇丰晋信策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>74.92</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>006355</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>华宝香港大盘（LOF）C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>011652</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>016285</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>汇丰晋信龙头优势混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>58.20</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>010783</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>82.71</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>013248</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>交银鸿泰一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>30.45</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>安信中国制造混合</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>013897</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>德邦港股通成长精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>010890</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>交银施罗德鸿福六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>28.26</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>014467</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>工银行业优选混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>62.72</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>013898</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>德邦港股通成长精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>014146</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>景顺长城港股通数字经济主题混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>013679</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>富国信享回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>25.56</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>159712</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>国泰中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>97.27</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>006781</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>009366</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>80.10</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>517180</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>南方富时中国国企开放共赢ETF</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>98.15</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>014214</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>光大保德信核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>85.79</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>010784</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>82.71</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>009224</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>宝盈现代服务业混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>013201</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>南方均衡优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>45.22</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>159788</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>易方达中证港股通中国100ETF</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>013486</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>尚正竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>82.14</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>513990</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>招商上证港股通ETF</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>850006</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>海通红利优选一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>80.12</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>012587</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>南方港股创新视野一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>159719</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>平安富时中国国企开放共赢ETF</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>013854</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>大成匠心卓越三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>68.84</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>010789</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>159711</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>华夏中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>96.70</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>010754</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>012990</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>天弘国证港股通50指数C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>014462</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>光大保德信汇佳混合A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>014147</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>景顺长城港股通数字经济主题混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>006106</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>景顺长城量化港股通股票</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>016175</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>汇丰晋信策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>74.92</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>850688</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>海通红利优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>80.12</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>010030</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>20.60</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>008481</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>83.68</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>012641</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>鹏华稳健鸿利一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>013860</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>宝盈品质甄选混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>007357</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>008407</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>012950</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>东方红招瑞甄选18个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>011647</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>77.58</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>016313</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>富国研究精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>009842</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>东方红明鉴优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>25.82</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>501309</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>国泰恒生港股通指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>016286</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>汇丰晋信龙头优势混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>58.20</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>012989</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>天弘国证港股通50指数A</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>005707</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>850088</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>海通量化价值精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>83.06</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>012171</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>华夏永顺一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>28.10</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>013249</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>交银鸿泰一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>30.45</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>013182</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>安信港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>69.28</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>61.58</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>015781</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>大成ESG责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>850004</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>海通量化价值精选一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>83.06</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>009367</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>80.10</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>011648</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>77.58</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>014215</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>光大保德信核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>85.79</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>008408</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>850699</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>海通红利优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>80.12</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>015118</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>010891</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>交银施罗德鸿福六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>28.26</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>014174</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>富国中证国有企业改革指数C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>016988</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合（QDII）人民币C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>850099</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>海通量化价值精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>83.06</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>013181</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>安信港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>69.28</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>014463</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>光大保德信汇佳混合C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>014163</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>015119</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合D</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G175" t="n">
+        <v>0</v>
+      </c>
+      <c r="H175" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>11.20</t>
+        </is>
+      </c>
+      <c r="G176" t="n">
+        <v>0</v>
+      </c>
+      <c r="H176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6195,7 +12914,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10233,7 +16952,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15683,7 +22402,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18093,7 +24812,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -21603,7 +28322,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -26053,7 +32772,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
